--- a/data/pca/factorExposure/factorExposure_2015-02-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01822391804269992</v>
+        <v>0.01145518311201338</v>
       </c>
       <c r="C2">
-        <v>0.03874128545896759</v>
+        <v>-0.05454060271768906</v>
       </c>
       <c r="D2">
-        <v>0.111098396940682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.04886188599454896</v>
+      </c>
+      <c r="E2">
+        <v>0.09846445897779353</v>
+      </c>
+      <c r="F2">
+        <v>-0.09902664167714102</v>
+      </c>
+      <c r="G2">
+        <v>0.1241695848292417</v>
+      </c>
+      <c r="H2">
+        <v>0.02526563039634025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04292549642085076</v>
+        <v>0.02140717653696715</v>
       </c>
       <c r="C4">
-        <v>0.09481809534767545</v>
+        <v>-0.1256502094826065</v>
       </c>
       <c r="D4">
-        <v>0.06930792433322919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.03799074183418609</v>
+      </c>
+      <c r="E4">
+        <v>0.09254745178638824</v>
+      </c>
+      <c r="F4">
+        <v>-0.1141123951655749</v>
+      </c>
+      <c r="G4">
+        <v>-0.03564205149535857</v>
+      </c>
+      <c r="H4">
+        <v>0.0578579941430349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03024692321889833</v>
+        <v>0.03518943089431004</v>
       </c>
       <c r="C6">
-        <v>0.03084253024954859</v>
+        <v>-0.04732554065732231</v>
       </c>
       <c r="D6">
-        <v>0.08186253576784376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03087358440155984</v>
+      </c>
+      <c r="E6">
+        <v>0.1141074168418307</v>
+      </c>
+      <c r="F6">
+        <v>-0.07006664249514966</v>
+      </c>
+      <c r="G6">
+        <v>0.002616377047954999</v>
+      </c>
+      <c r="H6">
+        <v>-0.03677756130894953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.002594479768563594</v>
+        <v>0.006872115201240582</v>
       </c>
       <c r="C7">
-        <v>0.03736224698683875</v>
+        <v>-0.05059765217034798</v>
       </c>
       <c r="D7">
-        <v>0.07025018509129002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01713650383843627</v>
+      </c>
+      <c r="E7">
+        <v>0.09434464027807951</v>
+      </c>
+      <c r="F7">
+        <v>-0.02094115250414971</v>
+      </c>
+      <c r="G7">
+        <v>-0.01061414325376789</v>
+      </c>
+      <c r="H7">
+        <v>0.01589216051517872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002688898299939615</v>
+        <v>-0.004484948302918114</v>
       </c>
       <c r="C8">
-        <v>0.04017608467015295</v>
+        <v>-0.05135964488157125</v>
       </c>
       <c r="D8">
-        <v>0.06344914614950684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.002531671961013335</v>
+      </c>
+      <c r="E8">
+        <v>0.06765971677901959</v>
+      </c>
+      <c r="F8">
+        <v>-0.07069827369906601</v>
+      </c>
+      <c r="G8">
+        <v>0.03758773200135816</v>
+      </c>
+      <c r="H8">
+        <v>0.06647957992476557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0297377739719657</v>
+        <v>0.01371551370734924</v>
       </c>
       <c r="C9">
-        <v>0.08357340273884106</v>
+        <v>-0.1037498356985167</v>
       </c>
       <c r="D9">
-        <v>0.07770459492777639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03543757985289859</v>
+      </c>
+      <c r="E9">
+        <v>0.08291364969253089</v>
+      </c>
+      <c r="F9">
+        <v>-0.08408011534028706</v>
+      </c>
+      <c r="G9">
+        <v>-0.01884107339161897</v>
+      </c>
+      <c r="H9">
+        <v>0.008590430302792561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2112724962965093</v>
+        <v>0.2424707109303104</v>
       </c>
       <c r="C10">
-        <v>-0.129024088432297</v>
+        <v>0.08462271014961122</v>
       </c>
       <c r="D10">
-        <v>-0.04864135230523528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.007188546446430897</v>
+      </c>
+      <c r="E10">
+        <v>-0.03205299232691691</v>
+      </c>
+      <c r="F10">
+        <v>-0.01584346554093961</v>
+      </c>
+      <c r="G10">
+        <v>-0.003072798528553399</v>
+      </c>
+      <c r="H10">
+        <v>-0.0009608274533672888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007927154461901438</v>
+        <v>0.009821126180202405</v>
       </c>
       <c r="C11">
-        <v>0.03800454562768642</v>
+        <v>-0.06026639740752029</v>
       </c>
       <c r="D11">
-        <v>0.04186369992077826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.01084344224686686</v>
+      </c>
+      <c r="E11">
+        <v>0.06050987902937457</v>
+      </c>
+      <c r="F11">
+        <v>-0.01602977228274315</v>
+      </c>
+      <c r="G11">
+        <v>-0.01481953572378457</v>
+      </c>
+      <c r="H11">
+        <v>0.003433264870427227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007071795008164137</v>
+        <v>0.01006518804281348</v>
       </c>
       <c r="C12">
-        <v>0.04030276771497664</v>
+        <v>-0.05042433004389024</v>
       </c>
       <c r="D12">
-        <v>0.04913097087310261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.01979834938021581</v>
+      </c>
+      <c r="E12">
+        <v>0.05516723315463987</v>
+      </c>
+      <c r="F12">
+        <v>-0.01571012802924648</v>
+      </c>
+      <c r="G12">
+        <v>-0.0001114050633016334</v>
+      </c>
+      <c r="H12">
+        <v>-0.02497030137915306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01486780061353214</v>
+        <v>0.004359137693674005</v>
       </c>
       <c r="C13">
-        <v>0.04537133915913709</v>
+        <v>-0.07930979843102745</v>
       </c>
       <c r="D13">
-        <v>0.1102255196066642</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.07354734131895474</v>
+      </c>
+      <c r="E13">
+        <v>0.1230976477249965</v>
+      </c>
+      <c r="F13">
+        <v>-0.04907263845341114</v>
+      </c>
+      <c r="G13">
+        <v>0.07553699671858112</v>
+      </c>
+      <c r="H13">
+        <v>-0.06937778991294909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.008165088975830744</v>
+        <v>0.003085520383887634</v>
       </c>
       <c r="C14">
-        <v>0.0236441827681404</v>
+        <v>-0.04327079543151292</v>
       </c>
       <c r="D14">
-        <v>0.05721732790711503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.008523359857336469</v>
+      </c>
+      <c r="E14">
+        <v>0.1091238514212286</v>
+      </c>
+      <c r="F14">
+        <v>-0.04923164290141042</v>
+      </c>
+      <c r="G14">
+        <v>0.03128752585166459</v>
+      </c>
+      <c r="H14">
+        <v>-0.03624299985729724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002595880865696077</v>
+        <v>-0.004730552731261823</v>
       </c>
       <c r="C15">
-        <v>0.01405757920568439</v>
+        <v>-0.03735825540503786</v>
       </c>
       <c r="D15">
-        <v>0.05020673014265898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02594382390934098</v>
+      </c>
+      <c r="E15">
+        <v>0.06908470519531212</v>
+      </c>
+      <c r="F15">
+        <v>-0.02411821792556133</v>
+      </c>
+      <c r="G15">
+        <v>0.01188055661298561</v>
+      </c>
+      <c r="H15">
+        <v>0.01158615405353872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007829668200833962</v>
+        <v>0.009439025154866994</v>
       </c>
       <c r="C16">
-        <v>0.0374585708203995</v>
+        <v>-0.05248794551893354</v>
       </c>
       <c r="D16">
-        <v>0.04544661366894793</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.01523838088447522</v>
+      </c>
+      <c r="E16">
+        <v>0.05753758921000682</v>
+      </c>
+      <c r="F16">
+        <v>-0.0142970975852001</v>
+      </c>
+      <c r="G16">
+        <v>-0.02397317937000456</v>
+      </c>
+      <c r="H16">
+        <v>-0.01341716786828119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003835985402554473</v>
+        <v>0.0003836030991802569</v>
       </c>
       <c r="C19">
-        <v>0.02402616083135528</v>
+        <v>-0.01810636729887817</v>
       </c>
       <c r="D19">
-        <v>0.04318035498686638</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01588505295510704</v>
+      </c>
+      <c r="E19">
+        <v>0.01058084000857378</v>
+      </c>
+      <c r="F19">
+        <v>-0.002720565460613983</v>
+      </c>
+      <c r="G19">
+        <v>0.03293609293364345</v>
+      </c>
+      <c r="H19">
+        <v>0.004227905403910909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0003845350239445641</v>
+        <v>0.003810085272699249</v>
       </c>
       <c r="C20">
-        <v>0.03513786653110734</v>
+        <v>-0.05659126794446424</v>
       </c>
       <c r="D20">
-        <v>0.05064238492003852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02933226178774715</v>
+      </c>
+      <c r="E20">
+        <v>0.0741680196561786</v>
+      </c>
+      <c r="F20">
+        <v>-0.02807170245578856</v>
+      </c>
+      <c r="G20">
+        <v>-0.02374916033496267</v>
+      </c>
+      <c r="H20">
+        <v>-0.001429092323668055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008733871562526476</v>
+        <v>0.003932321792824206</v>
       </c>
       <c r="C21">
-        <v>0.05830230445710632</v>
+        <v>-0.0688484339141209</v>
       </c>
       <c r="D21">
-        <v>0.07759872244329491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02922273431492373</v>
+      </c>
+      <c r="E21">
+        <v>0.08085467090963602</v>
+      </c>
+      <c r="F21">
+        <v>-0.08594792378029797</v>
+      </c>
+      <c r="G21">
+        <v>0.1106922303091277</v>
+      </c>
+      <c r="H21">
+        <v>-0.05855117211832012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001791595548742867</v>
+        <v>-0.010380902431233</v>
       </c>
       <c r="C22">
-        <v>0.06895697313870722</v>
+        <v>-0.09701586324742062</v>
       </c>
       <c r="D22">
-        <v>0.1877068301538472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1297236138546458</v>
+      </c>
+      <c r="E22">
+        <v>0.1843530646006172</v>
+      </c>
+      <c r="F22">
+        <v>-0.1625725515560893</v>
+      </c>
+      <c r="G22">
+        <v>0.08655201933461852</v>
+      </c>
+      <c r="H22">
+        <v>0.2566457974961051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001702771261956989</v>
+        <v>-0.007341330821786008</v>
       </c>
       <c r="C23">
-        <v>0.0699798345216988</v>
+        <v>-0.09935733332873925</v>
       </c>
       <c r="D23">
-        <v>0.1867371618463764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1332608047483719</v>
+      </c>
+      <c r="E23">
+        <v>0.1823008140668729</v>
+      </c>
+      <c r="F23">
+        <v>-0.1630198761482239</v>
+      </c>
+      <c r="G23">
+        <v>0.08572967943795941</v>
+      </c>
+      <c r="H23">
+        <v>0.2468269796005841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01249334324774112</v>
+        <v>0.01093254174449236</v>
       </c>
       <c r="C24">
-        <v>0.05979773884095053</v>
+        <v>-0.0701688118259179</v>
       </c>
       <c r="D24">
-        <v>0.05587351140860975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.008008057242765121</v>
+      </c>
+      <c r="E24">
+        <v>0.06476270434327615</v>
+      </c>
+      <c r="F24">
+        <v>-0.01703316414480302</v>
+      </c>
+      <c r="G24">
+        <v>-0.002482599320147707</v>
+      </c>
+      <c r="H24">
+        <v>-0.001781447383876258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01263896646779144</v>
+        <v>0.01457576266849617</v>
       </c>
       <c r="C25">
-        <v>0.05086700836863058</v>
+        <v>-0.0640324953958641</v>
       </c>
       <c r="D25">
-        <v>0.04283250044586828</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01665547527539427</v>
+      </c>
+      <c r="E25">
+        <v>0.05020429090513568</v>
+      </c>
+      <c r="F25">
+        <v>-0.01835737308880298</v>
+      </c>
+      <c r="G25">
+        <v>-0.01635966071504844</v>
+      </c>
+      <c r="H25">
+        <v>-0.003869495778167464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007610588433099761</v>
+        <v>0.01633423278879433</v>
       </c>
       <c r="C26">
-        <v>0.02363735245757414</v>
+        <v>-0.04229295248537993</v>
       </c>
       <c r="D26">
-        <v>0.0464119843529264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.004366130500554382</v>
+      </c>
+      <c r="E26">
+        <v>0.07720972436275468</v>
+      </c>
+      <c r="F26">
+        <v>-0.05803308827918086</v>
+      </c>
+      <c r="G26">
+        <v>0.0236196434893527</v>
+      </c>
+      <c r="H26">
+        <v>0.004130870635231734</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2906770984277422</v>
+        <v>0.311802393636864</v>
       </c>
       <c r="C28">
-        <v>-0.1414904257762212</v>
+        <v>0.09507809189470731</v>
       </c>
       <c r="D28">
-        <v>-0.01706060107798511</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01321895482436385</v>
+      </c>
+      <c r="E28">
+        <v>-0.05338243225906389</v>
+      </c>
+      <c r="F28">
+        <v>-0.05611214613183622</v>
+      </c>
+      <c r="G28">
+        <v>0.03740521060551553</v>
+      </c>
+      <c r="H28">
+        <v>0.06995411548084836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001061716018899847</v>
+        <v>0.002980899375893651</v>
       </c>
       <c r="C29">
-        <v>0.02738958927638072</v>
+        <v>-0.04907776788492647</v>
       </c>
       <c r="D29">
-        <v>0.06084938003445968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0119094367472777</v>
+      </c>
+      <c r="E29">
+        <v>0.1205147773380946</v>
+      </c>
+      <c r="F29">
+        <v>-0.05467659357684387</v>
+      </c>
+      <c r="G29">
+        <v>0.02598115148378287</v>
+      </c>
+      <c r="H29">
+        <v>-0.05493273751964357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02281000999820532</v>
+        <v>0.01726594379321858</v>
       </c>
       <c r="C30">
-        <v>0.08439124747058944</v>
+        <v>-0.1096478569304557</v>
       </c>
       <c r="D30">
-        <v>0.1324123027731872</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.04069633703943148</v>
+      </c>
+      <c r="E30">
+        <v>0.1454873173125553</v>
+      </c>
+      <c r="F30">
+        <v>-0.05058554053904574</v>
+      </c>
+      <c r="G30">
+        <v>-0.01655148205801316</v>
+      </c>
+      <c r="H30">
+        <v>0.01428770767169536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.02552371994811552</v>
+        <v>0.01079780533453305</v>
       </c>
       <c r="C31">
-        <v>0.09484272949414521</v>
+        <v>-0.1008609441128278</v>
       </c>
       <c r="D31">
-        <v>0.04019240567050395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0008563184101527756</v>
+      </c>
+      <c r="E31">
+        <v>0.02638150145514337</v>
+      </c>
+      <c r="F31">
+        <v>-0.01169581302616751</v>
+      </c>
+      <c r="G31">
+        <v>0.02179981876869641</v>
+      </c>
+      <c r="H31">
+        <v>0.01717574114624868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01792221689147731</v>
+        <v>0.01337242157205864</v>
       </c>
       <c r="C32">
-        <v>0.05353997334801507</v>
+        <v>-0.06352090668675797</v>
       </c>
       <c r="D32">
-        <v>0.07571615626701061</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05481484887372778</v>
+      </c>
+      <c r="E32">
+        <v>0.04052163099737999</v>
+      </c>
+      <c r="F32">
+        <v>-0.06944306677211014</v>
+      </c>
+      <c r="G32">
+        <v>0.0498432753121885</v>
+      </c>
+      <c r="H32">
+        <v>-0.004853953127154254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004752941409080861</v>
+        <v>0.007970870088958082</v>
       </c>
       <c r="C33">
-        <v>0.05477792821187179</v>
+        <v>-0.07861451038038003</v>
       </c>
       <c r="D33">
-        <v>0.07837506306056176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.03673865358667243</v>
+      </c>
+      <c r="E33">
+        <v>0.09817963726330432</v>
+      </c>
+      <c r="F33">
+        <v>-0.04548344064358701</v>
+      </c>
+      <c r="G33">
+        <v>0.006360275851995311</v>
+      </c>
+      <c r="H33">
+        <v>-0.004829319041258937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006787728775706782</v>
+        <v>0.009125361289693988</v>
       </c>
       <c r="C34">
-        <v>0.05579711165093094</v>
+        <v>-0.05878398793022253</v>
       </c>
       <c r="D34">
-        <v>0.06060947985872352</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.007185531950027616</v>
+      </c>
+      <c r="E34">
+        <v>0.05313091859265144</v>
+      </c>
+      <c r="F34">
+        <v>0.0116723034807176</v>
+      </c>
+      <c r="G34">
+        <v>0.007209646263347331</v>
+      </c>
+      <c r="H34">
+        <v>-0.009277387141403567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0007244526686497268</v>
+        <v>0.004238959780001202</v>
       </c>
       <c r="C35">
-        <v>0.0005397017740311859</v>
+        <v>-0.01945947604793789</v>
       </c>
       <c r="D35">
-        <v>0.004068198391721817</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01200301034560985</v>
+      </c>
+      <c r="E35">
+        <v>0.03629438203656487</v>
+      </c>
+      <c r="F35">
+        <v>-0.0302537574325924</v>
+      </c>
+      <c r="G35">
+        <v>-0.0009535848563703135</v>
+      </c>
+      <c r="H35">
+        <v>-0.02001412624120949</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006141213233050299</v>
+        <v>0.01030568129306175</v>
       </c>
       <c r="C36">
-        <v>0.02414823248189748</v>
+        <v>-0.03617973406682878</v>
       </c>
       <c r="D36">
-        <v>0.03922163204255207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.006321869959401694</v>
+      </c>
+      <c r="E36">
+        <v>0.0657774165277292</v>
+      </c>
+      <c r="F36">
+        <v>-0.05171563744421582</v>
+      </c>
+      <c r="G36">
+        <v>0.01183279757704248</v>
+      </c>
+      <c r="H36">
+        <v>0.0004232871770731794</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.003540012670221593</v>
+        <v>0.006330554225121892</v>
       </c>
       <c r="C38">
-        <v>0.01814095360758799</v>
+        <v>-0.03844867961439782</v>
       </c>
       <c r="D38">
-        <v>0.06888113975214988</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.03127832404094642</v>
+      </c>
+      <c r="E38">
+        <v>0.0795963022779997</v>
+      </c>
+      <c r="F38">
+        <v>-0.01832479476523461</v>
+      </c>
+      <c r="G38">
+        <v>0.003633162111966407</v>
+      </c>
+      <c r="H38">
+        <v>0.05125873568784465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01267272048292657</v>
+        <v>0.008912021191481562</v>
       </c>
       <c r="C39">
-        <v>0.06666621668411631</v>
+        <v>-0.09799654723145167</v>
       </c>
       <c r="D39">
-        <v>0.09702783425528429</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0110133327121448</v>
+      </c>
+      <c r="E39">
+        <v>0.1211725947182</v>
+      </c>
+      <c r="F39">
+        <v>-0.01402749573954627</v>
+      </c>
+      <c r="G39">
+        <v>-0.004695199737453366</v>
+      </c>
+      <c r="H39">
+        <v>-0.02439302266435235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01354183035225507</v>
+        <v>0.0134881494966462</v>
       </c>
       <c r="C40">
-        <v>0.03271962617480595</v>
+        <v>-0.0489365327890946</v>
       </c>
       <c r="D40">
-        <v>0.1049826881381576</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03657258162174196</v>
+      </c>
+      <c r="E40">
+        <v>0.1045951244660017</v>
+      </c>
+      <c r="F40">
+        <v>-0.001379645582077816</v>
+      </c>
+      <c r="G40">
+        <v>0.07127353777339736</v>
+      </c>
+      <c r="H40">
+        <v>0.004077527986702154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007923039267840002</v>
+        <v>0.01575646916170773</v>
       </c>
       <c r="C41">
-        <v>0.01724417247359629</v>
+        <v>-0.0340513166975264</v>
       </c>
       <c r="D41">
-        <v>0.01950035869275673</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0110024368071207</v>
+      </c>
+      <c r="E41">
+        <v>0.02760390250214991</v>
+      </c>
+      <c r="F41">
+        <v>-0.01064508399724827</v>
+      </c>
+      <c r="G41">
+        <v>-0.0003638287912400555</v>
+      </c>
+      <c r="H41">
+        <v>0.006578671933374605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003402975238389887</v>
+        <v>0.007623195353424007</v>
       </c>
       <c r="C43">
-        <v>0.01402938996157654</v>
+        <v>-0.02819667407891831</v>
       </c>
       <c r="D43">
-        <v>0.03387753765829989</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01391776558796437</v>
+      </c>
+      <c r="E43">
+        <v>0.04217556331993115</v>
+      </c>
+      <c r="F43">
+        <v>-0.01553922073005124</v>
+      </c>
+      <c r="G43">
+        <v>-0.003632897068657893</v>
+      </c>
+      <c r="H43">
+        <v>0.01123467356628828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01794107358832496</v>
+        <v>0.008293983342753674</v>
       </c>
       <c r="C44">
-        <v>0.04749820348086999</v>
+        <v>-0.06654876334804262</v>
       </c>
       <c r="D44">
-        <v>0.07914570005293653</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.02455354369606465</v>
+      </c>
+      <c r="E44">
+        <v>0.1076220805563873</v>
+      </c>
+      <c r="F44">
+        <v>-0.05343276967917808</v>
+      </c>
+      <c r="G44">
+        <v>0.01129377379195977</v>
+      </c>
+      <c r="H44">
+        <v>0.027808507452763</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002021759092119992</v>
+        <v>5.91821568988627e-05</v>
       </c>
       <c r="C46">
-        <v>0.03945865524308943</v>
+        <v>-0.05107818573048444</v>
       </c>
       <c r="D46">
-        <v>0.06256655629754047</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0005875391764787128</v>
+      </c>
+      <c r="E46">
+        <v>0.08913951635528208</v>
+      </c>
+      <c r="F46">
+        <v>-0.04431610194852968</v>
+      </c>
+      <c r="G46">
+        <v>0.02340717942932381</v>
+      </c>
+      <c r="H46">
+        <v>-0.006856715170898941</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0577009893035149</v>
+        <v>0.03041635493214521</v>
       </c>
       <c r="C47">
-        <v>0.1254347655548353</v>
+        <v>-0.1268286131173394</v>
       </c>
       <c r="D47">
-        <v>0.04555934605794774</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005690233691672065</v>
+      </c>
+      <c r="E47">
+        <v>0.001903192291158397</v>
+      </c>
+      <c r="F47">
+        <v>0.01128640890164166</v>
+      </c>
+      <c r="G47">
+        <v>0.006761914184181818</v>
+      </c>
+      <c r="H47">
+        <v>0.02398956470359476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005391749856302427</v>
+        <v>0.01250950459333935</v>
       </c>
       <c r="C48">
-        <v>0.02867229581980391</v>
+        <v>-0.04379917158450156</v>
       </c>
       <c r="D48">
-        <v>0.04254915481975089</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01083470179793344</v>
+      </c>
+      <c r="E48">
+        <v>0.07025723788240119</v>
+      </c>
+      <c r="F48">
+        <v>-0.06902465612589649</v>
+      </c>
+      <c r="G48">
+        <v>0.01550781315182097</v>
+      </c>
+      <c r="H48">
+        <v>0.01170301080764106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002731415368738574</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.005947985590541664</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.001997955540764441</v>
+      </c>
+      <c r="E49">
+        <v>0.002631628451515546</v>
+      </c>
+      <c r="F49">
+        <v>0.01181708300037172</v>
+      </c>
+      <c r="G49">
+        <v>-0.007978680898658492</v>
+      </c>
+      <c r="H49">
+        <v>-0.01579158995894346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.02760997241296168</v>
+        <v>0.01421013014836282</v>
       </c>
       <c r="C50">
-        <v>0.06923765086093343</v>
+        <v>-0.08267516101091919</v>
       </c>
       <c r="D50">
-        <v>0.05873828886768642</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01385292349455543</v>
+      </c>
+      <c r="E50">
+        <v>0.04015963000894464</v>
+      </c>
+      <c r="F50">
+        <v>-0.007019358095750512</v>
+      </c>
+      <c r="G50">
+        <v>0.01385346144855115</v>
+      </c>
+      <c r="H50">
+        <v>0.03049510868909133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006414580533152142</v>
+        <v>-0.004663584319738904</v>
       </c>
       <c r="C51">
-        <v>0.01032291462831488</v>
+        <v>-0.02406197732450737</v>
       </c>
       <c r="D51">
-        <v>0.05061003634687734</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0003296674121986399</v>
+      </c>
+      <c r="E51">
+        <v>0.06197362616753169</v>
+      </c>
+      <c r="F51">
+        <v>-0.04823846869391635</v>
+      </c>
+      <c r="G51">
+        <v>0.03023954055242275</v>
+      </c>
+      <c r="H51">
+        <v>0.001969011873944101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09204983110018074</v>
+        <v>0.06094433283363652</v>
       </c>
       <c r="C53">
-        <v>0.153661295878579</v>
+        <v>-0.1671178980894016</v>
       </c>
       <c r="D53">
-        <v>-0.01001804725173104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02688697591864159</v>
+      </c>
+      <c r="E53">
+        <v>-0.05143802581648398</v>
+      </c>
+      <c r="F53">
+        <v>-0.0006614024858326313</v>
+      </c>
+      <c r="G53">
+        <v>0.01664593437170184</v>
+      </c>
+      <c r="H53">
+        <v>0.01811966495573963</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00593914686875727</v>
+        <v>0.01110738941545249</v>
       </c>
       <c r="C54">
-        <v>0.03489148652909331</v>
+        <v>-0.05115609366146887</v>
       </c>
       <c r="D54">
-        <v>0.08023532766695744</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03437765146749435</v>
+      </c>
+      <c r="E54">
+        <v>0.07483756934728104</v>
+      </c>
+      <c r="F54">
+        <v>-0.02316449269437044</v>
+      </c>
+      <c r="G54">
+        <v>0.01782057610351196</v>
+      </c>
+      <c r="H54">
+        <v>0.01836834737042547</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07475644838352972</v>
+        <v>0.04182999744673446</v>
       </c>
       <c r="C55">
-        <v>0.1248137394406971</v>
+        <v>-0.1273756536125624</v>
       </c>
       <c r="D55">
-        <v>-0.002681796846861391</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05200887505788668</v>
+      </c>
+      <c r="E55">
+        <v>-0.04019970556251547</v>
+      </c>
+      <c r="F55">
+        <v>0.03005557638707062</v>
+      </c>
+      <c r="G55">
+        <v>0.03720211503830669</v>
+      </c>
+      <c r="H55">
+        <v>0.02410087048126308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1117587090889901</v>
+        <v>0.06271795339321103</v>
       </c>
       <c r="C56">
-        <v>0.1817828752216165</v>
+        <v>-0.1939986187401383</v>
       </c>
       <c r="D56">
-        <v>0.01822351681336831</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04424043951303133</v>
+      </c>
+      <c r="E56">
+        <v>-0.06853114092939233</v>
+      </c>
+      <c r="F56">
+        <v>0.04990872219530321</v>
+      </c>
+      <c r="G56">
+        <v>0.08024103739146007</v>
+      </c>
+      <c r="H56">
+        <v>0.05988376760180413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01409153880347489</v>
+        <v>0.009177336188588849</v>
       </c>
       <c r="C58">
-        <v>0.04730447823712833</v>
+        <v>-0.09605978601337238</v>
       </c>
       <c r="D58">
-        <v>0.1651213730473133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.1350552697939977</v>
+      </c>
+      <c r="E58">
+        <v>0.1763576673875928</v>
+      </c>
+      <c r="F58">
+        <v>-0.2089110655378968</v>
+      </c>
+      <c r="G58">
+        <v>0.06110859419733176</v>
+      </c>
+      <c r="H58">
+        <v>0.1511460162876718</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2184172550566135</v>
+        <v>0.2614039490240784</v>
       </c>
       <c r="C59">
-        <v>-0.09734473427662792</v>
+        <v>0.05245469536578522</v>
       </c>
       <c r="D59">
-        <v>0.04143882236241988</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03833542815056439</v>
+      </c>
+      <c r="E59">
+        <v>0.01152462029301476</v>
+      </c>
+      <c r="F59">
+        <v>-0.03099982332898144</v>
+      </c>
+      <c r="G59">
+        <v>0.04061328420345604</v>
+      </c>
+      <c r="H59">
+        <v>-0.01064046230513273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1557370023689931</v>
+        <v>0.1526981618398614</v>
       </c>
       <c r="C60">
-        <v>0.1185412470721852</v>
+        <v>-0.1566229879024923</v>
       </c>
       <c r="D60">
-        <v>0.1251461939728692</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.009938347587006489</v>
+      </c>
+      <c r="E60">
+        <v>0.126629988395825</v>
+      </c>
+      <c r="F60">
+        <v>0.1837469612016973</v>
+      </c>
+      <c r="G60">
+        <v>-0.136599481094814</v>
+      </c>
+      <c r="H60">
+        <v>-0.232016228028612</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01641880136831885</v>
+        <v>0.01439154785276349</v>
       </c>
       <c r="C61">
-        <v>0.05910953408533776</v>
+        <v>-0.08297806062126753</v>
       </c>
       <c r="D61">
-        <v>0.06869538463799046</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.01265989919836333</v>
+      </c>
+      <c r="E61">
+        <v>0.08182417382631005</v>
+      </c>
+      <c r="F61">
+        <v>-0.008814356345939453</v>
+      </c>
+      <c r="G61">
+        <v>0.001844169845626753</v>
+      </c>
+      <c r="H61">
+        <v>-0.01090475444352371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0002659407438153732</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-8.081762481817395e-05</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0005261673790091493</v>
+      </c>
+      <c r="E62">
+        <v>0.0004788347515626397</v>
+      </c>
+      <c r="F62">
+        <v>-0.001295040648900326</v>
+      </c>
+      <c r="G62">
+        <v>0.0004582128608209353</v>
+      </c>
+      <c r="H62">
+        <v>0.001542093515936074</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.007370098408456191</v>
+        <v>0.01604414791832263</v>
       </c>
       <c r="C63">
-        <v>0.03622539368428117</v>
+        <v>-0.05485532502216968</v>
       </c>
       <c r="D63">
-        <v>0.06283502003324147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.005132125231323488</v>
+      </c>
+      <c r="E63">
+        <v>0.08970907438046935</v>
+      </c>
+      <c r="F63">
+        <v>-0.02843009391711115</v>
+      </c>
+      <c r="G63">
+        <v>0.001774782890394345</v>
+      </c>
+      <c r="H63">
+        <v>-0.0100197665215574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03686792665143053</v>
+        <v>0.01561074342590016</v>
       </c>
       <c r="C64">
-        <v>0.1008367372651128</v>
+        <v>-0.1026786378855531</v>
       </c>
       <c r="D64">
-        <v>0.01401364139578406</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.009076000791275818</v>
+      </c>
+      <c r="E64">
+        <v>0.02475807940871379</v>
+      </c>
+      <c r="F64">
+        <v>-0.02782913742854062</v>
+      </c>
+      <c r="G64">
+        <v>-0.03543903972206508</v>
+      </c>
+      <c r="H64">
+        <v>0.00182867865475577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02600355942776488</v>
+        <v>0.02755417423738615</v>
       </c>
       <c r="C65">
-        <v>0.02594785503540762</v>
+        <v>-0.05408923275930692</v>
       </c>
       <c r="D65">
-        <v>0.08467442591155651</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0485898224468514</v>
+      </c>
+      <c r="E65">
+        <v>0.1114275252333513</v>
+      </c>
+      <c r="F65">
+        <v>-0.007488248770489268</v>
+      </c>
+      <c r="G65">
+        <v>-0.06165971385509351</v>
+      </c>
+      <c r="H65">
+        <v>-0.03286044550734208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01728661803783549</v>
+        <v>0.009779375903769866</v>
       </c>
       <c r="C66">
-        <v>0.08043946106962563</v>
+        <v>-0.1185990475601893</v>
       </c>
       <c r="D66">
-        <v>0.1180007018875579</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.04436468544306792</v>
+      </c>
+      <c r="E66">
+        <v>0.1261489514096436</v>
+      </c>
+      <c r="F66">
+        <v>-0.02198514052240314</v>
+      </c>
+      <c r="G66">
+        <v>0.006911969689266178</v>
+      </c>
+      <c r="H66">
+        <v>-0.001208850790979056</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01447507499532952</v>
+        <v>0.01546700114462447</v>
       </c>
       <c r="C67">
-        <v>0.02185713196629238</v>
+        <v>-0.03901655546043535</v>
       </c>
       <c r="D67">
-        <v>0.04082405579874633</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01140618995308478</v>
+      </c>
+      <c r="E67">
+        <v>0.05534322459295125</v>
+      </c>
+      <c r="F67">
+        <v>0.01591627559717467</v>
+      </c>
+      <c r="G67">
+        <v>-0.006159660858391122</v>
+      </c>
+      <c r="H67">
+        <v>0.03387630260930698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2305591267844114</v>
+        <v>0.2791236029787352</v>
       </c>
       <c r="C68">
-        <v>-0.1113647929281596</v>
+        <v>0.06660139403435351</v>
       </c>
       <c r="D68">
-        <v>0.02358097891901563</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03040832988621157</v>
+      </c>
+      <c r="E68">
+        <v>0.02965665533426268</v>
+      </c>
+      <c r="F68">
+        <v>-0.04185222536490764</v>
+      </c>
+      <c r="G68">
+        <v>0.02513905884549837</v>
+      </c>
+      <c r="H68">
+        <v>0.02830854163931489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0404494887121302</v>
+        <v>0.01402975818230368</v>
       </c>
       <c r="C69">
-        <v>0.1267193359766811</v>
+        <v>-0.1129688759678107</v>
       </c>
       <c r="D69">
-        <v>0.0612434641011324</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.001001132189978084</v>
+      </c>
+      <c r="E69">
+        <v>0.01619998223785529</v>
+      </c>
+      <c r="F69">
+        <v>0.01445551267554637</v>
+      </c>
+      <c r="G69">
+        <v>0.01005160927775821</v>
+      </c>
+      <c r="H69">
+        <v>0.006604639150292881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2448894785816789</v>
+        <v>0.2685727874403296</v>
       </c>
       <c r="C71">
-        <v>-0.1309574196576427</v>
+        <v>0.08115251099426445</v>
       </c>
       <c r="D71">
-        <v>0.0145599928765378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01090627194127274</v>
+      </c>
+      <c r="E71">
+        <v>0.00571377987633206</v>
+      </c>
+      <c r="F71">
+        <v>-0.01709313567580511</v>
+      </c>
+      <c r="G71">
+        <v>0.03123920485631032</v>
+      </c>
+      <c r="H71">
+        <v>0.04794328468153771</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09228875207272465</v>
+        <v>0.06605799461692972</v>
       </c>
       <c r="C72">
-        <v>0.1026368306702592</v>
+        <v>-0.1329949560838358</v>
       </c>
       <c r="D72">
-        <v>0.08752379208074172</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.007502804248818135</v>
+      </c>
+      <c r="E72">
+        <v>0.07736803119563873</v>
+      </c>
+      <c r="F72">
+        <v>0.03783164286251879</v>
+      </c>
+      <c r="G72">
+        <v>-0.03171847764254083</v>
+      </c>
+      <c r="H72">
+        <v>-0.02735264150358815</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1622509358919478</v>
+        <v>0.1594273588379231</v>
       </c>
       <c r="C73">
-        <v>0.09236686467378187</v>
+        <v>-0.1643436341898264</v>
       </c>
       <c r="D73">
-        <v>0.183483621247299</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.04724255098178751</v>
+      </c>
+      <c r="E73">
+        <v>0.2628491198156049</v>
+      </c>
+      <c r="F73">
+        <v>0.328169148154514</v>
+      </c>
+      <c r="G73">
+        <v>-0.2580204299409017</v>
+      </c>
+      <c r="H73">
+        <v>-0.3153299844517147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08550105168690929</v>
+        <v>0.0514736700765384</v>
       </c>
       <c r="C74">
-        <v>0.133132495329582</v>
+        <v>-0.1395193380485481</v>
       </c>
       <c r="D74">
-        <v>-0.05735529156029296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04413976541525718</v>
+      </c>
+      <c r="E74">
+        <v>-0.06728486193704525</v>
+      </c>
+      <c r="F74">
+        <v>-0.003648866158151386</v>
+      </c>
+      <c r="G74">
+        <v>0.01331271030101123</v>
+      </c>
+      <c r="H74">
+        <v>0.02287709433399628</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1858735107537177</v>
+        <v>0.09972251270510028</v>
       </c>
       <c r="C75">
-        <v>0.232146003650329</v>
+        <v>-0.250161377399286</v>
       </c>
       <c r="D75">
-        <v>-0.02950948984580452</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.05992923187119951</v>
+      </c>
+      <c r="E75">
+        <v>-0.1639263319405051</v>
+      </c>
+      <c r="F75">
+        <v>0.1204140679310059</v>
+      </c>
+      <c r="G75">
+        <v>0.08423902238022421</v>
+      </c>
+      <c r="H75">
+        <v>0.1717260258057065</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1138923521236144</v>
+        <v>0.06174109657180208</v>
       </c>
       <c r="C76">
-        <v>0.1695498985894432</v>
+        <v>-0.1818871934990357</v>
       </c>
       <c r="D76">
-        <v>0.006678391990495689</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04342317577902342</v>
+      </c>
+      <c r="E76">
+        <v>-0.07069820205562601</v>
+      </c>
+      <c r="F76">
+        <v>0.06613136175312573</v>
+      </c>
+      <c r="G76">
+        <v>0.06264004476173872</v>
+      </c>
+      <c r="H76">
+        <v>0.03834410435000869</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.001275027427064215</v>
+        <v>0.003348243177197193</v>
       </c>
       <c r="C77">
-        <v>0.1055695543867153</v>
+        <v>-0.1436820395704733</v>
       </c>
       <c r="D77">
-        <v>0.2000982602993995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.8695339062862028</v>
+      </c>
+      <c r="E77">
+        <v>-0.3632029145745676</v>
+      </c>
+      <c r="F77">
+        <v>0.09928476377367534</v>
+      </c>
+      <c r="G77">
+        <v>-0.1655579123826776</v>
+      </c>
+      <c r="H77">
+        <v>-0.06666618528813939</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03015016248465958</v>
+        <v>0.02571329683428669</v>
       </c>
       <c r="C78">
-        <v>0.08663047109588286</v>
+        <v>-0.1027606870554</v>
       </c>
       <c r="D78">
-        <v>0.1278810895360342</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.01474015374808024</v>
+      </c>
+      <c r="E78">
+        <v>0.1057736434257805</v>
+      </c>
+      <c r="F78">
+        <v>-0.06806968485502825</v>
+      </c>
+      <c r="G78">
+        <v>0.0806978942263015</v>
+      </c>
+      <c r="H78">
+        <v>0.004576039783670303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09473126796203529</v>
+        <v>0.05449001456099566</v>
       </c>
       <c r="C79">
-        <v>0.271462111952593</v>
+        <v>-0.236723707255336</v>
       </c>
       <c r="D79">
-        <v>-0.6948703064871865</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.2052184459564776</v>
+      </c>
+      <c r="E79">
+        <v>-0.3169104323581988</v>
+      </c>
+      <c r="F79">
+        <v>-0.6598690619052064</v>
+      </c>
+      <c r="G79">
+        <v>-0.4701402032850061</v>
+      </c>
+      <c r="H79">
+        <v>-0.258489577559439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003886870220610803</v>
+        <v>0.009287847737665425</v>
       </c>
       <c r="C80">
-        <v>0.05086552129820703</v>
+        <v>-0.05057727802893308</v>
       </c>
       <c r="D80">
-        <v>0.02435018972144055</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02396169167867641</v>
+      </c>
+      <c r="E80">
+        <v>0.05333408933654371</v>
+      </c>
+      <c r="F80">
+        <v>0.01561437097272605</v>
+      </c>
+      <c r="G80">
+        <v>0.04292909840730406</v>
+      </c>
+      <c r="H80">
+        <v>-0.0588912048173468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.08313158056221177</v>
+        <v>0.03257754747758313</v>
       </c>
       <c r="C81">
-        <v>0.155270460425722</v>
+        <v>-0.1594003160518556</v>
       </c>
       <c r="D81">
-        <v>-0.07089723564009882</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.05379988541284403</v>
+      </c>
+      <c r="E81">
+        <v>-0.1013430783149585</v>
+      </c>
+      <c r="F81">
+        <v>-0.008453575564803298</v>
+      </c>
+      <c r="G81">
+        <v>0.07813151651412717</v>
+      </c>
+      <c r="H81">
+        <v>0.04509761412785627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1724066016579472</v>
+        <v>0.08229850732050406</v>
       </c>
       <c r="C82">
-        <v>0.2886535812361559</v>
+        <v>-0.2595082276389808</v>
       </c>
       <c r="D82">
-        <v>-0.02920237218976323</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09904691406132253</v>
+      </c>
+      <c r="E82">
+        <v>-0.1783616429974763</v>
+      </c>
+      <c r="F82">
+        <v>0.1385776736084888</v>
+      </c>
+      <c r="G82">
+        <v>0.1731144216635617</v>
+      </c>
+      <c r="H82">
+        <v>0.08983517063211383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01362600064787102</v>
+        <v>-0.006332667846895621</v>
       </c>
       <c r="C83">
-        <v>0.04726338588092426</v>
+        <v>-0.01549077329474975</v>
       </c>
       <c r="D83">
-        <v>-0.003085879490069598</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.07025879080904315</v>
+      </c>
+      <c r="E83">
+        <v>-0.1041854279640179</v>
+      </c>
+      <c r="F83">
+        <v>-0.1703690729244278</v>
+      </c>
+      <c r="G83">
+        <v>0.6549873954384974</v>
+      </c>
+      <c r="H83">
+        <v>-0.6310763962126812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001269453100407902</v>
+        <v>-0.002724778209066618</v>
       </c>
       <c r="C84">
-        <v>0.004599058282936386</v>
+        <v>-0.02284552806497715</v>
       </c>
       <c r="D84">
-        <v>0.01091138149004673</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02076064860921516</v>
+      </c>
+      <c r="E84">
+        <v>0.04402115539054836</v>
+      </c>
+      <c r="F84">
+        <v>-0.0544322590530656</v>
+      </c>
+      <c r="G84">
+        <v>0.0101771089993314</v>
+      </c>
+      <c r="H84">
+        <v>0.06278531231862514</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.107996895375961</v>
+        <v>0.05682337581958043</v>
       </c>
       <c r="C85">
-        <v>0.1691189866162971</v>
+        <v>-0.174074676494443</v>
       </c>
       <c r="D85">
-        <v>-0.0920317369493146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1118062145819144</v>
+      </c>
+      <c r="E85">
+        <v>-0.0974065823526155</v>
+      </c>
+      <c r="F85">
+        <v>-0.007509828693009586</v>
+      </c>
+      <c r="G85">
+        <v>0.02113049588785599</v>
+      </c>
+      <c r="H85">
+        <v>0.04122182637882378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02564492896617973</v>
+        <v>0.01627075257182724</v>
       </c>
       <c r="C86">
-        <v>0.01896191556503602</v>
+        <v>-0.05152545631555011</v>
       </c>
       <c r="D86">
-        <v>0.07302888318364772</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06449699358866054</v>
+      </c>
+      <c r="E86">
+        <v>0.04824952667986726</v>
+      </c>
+      <c r="F86">
+        <v>-0.07459706060634706</v>
+      </c>
+      <c r="G86">
+        <v>0.01386555422772752</v>
+      </c>
+      <c r="H86">
+        <v>0.06387984453570374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02072914797507835</v>
+        <v>0.01242935693908308</v>
       </c>
       <c r="C87">
-        <v>0.04986210413475842</v>
+        <v>-0.07521445339585597</v>
       </c>
       <c r="D87">
-        <v>0.1074898486314182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06549816522541882</v>
+      </c>
+      <c r="E87">
+        <v>0.1006283522535893</v>
+      </c>
+      <c r="F87">
+        <v>-0.08714633327526926</v>
+      </c>
+      <c r="G87">
+        <v>0.04186484361074192</v>
+      </c>
+      <c r="H87">
+        <v>0.03998672890424364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.03909265408498155</v>
+        <v>0.03442983246280469</v>
       </c>
       <c r="C88">
-        <v>0.06273471563596593</v>
+        <v>-0.07524138130765744</v>
       </c>
       <c r="D88">
-        <v>-0.00221463905086104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01414176751067086</v>
+      </c>
+      <c r="E88">
+        <v>0.0240016412952594</v>
+      </c>
+      <c r="F88">
+        <v>-0.004782744126279998</v>
+      </c>
+      <c r="G88">
+        <v>-0.007799543735365518</v>
+      </c>
+      <c r="H88">
+        <v>0.002648192995334526</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.377076842724991</v>
+        <v>0.3992795465547881</v>
       </c>
       <c r="C89">
-        <v>-0.2514824277746148</v>
+        <v>0.16167856203357</v>
       </c>
       <c r="D89">
-        <v>0.0007304376419700697</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.04849933349453046</v>
+      </c>
+      <c r="E89">
+        <v>0.01064861656672278</v>
+      </c>
+      <c r="F89">
+        <v>-0.1090315452712929</v>
+      </c>
+      <c r="G89">
+        <v>0.08320898795602873</v>
+      </c>
+      <c r="H89">
+        <v>-0.07177208923620047</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2975173368589938</v>
+        <v>0.3208446515616046</v>
       </c>
       <c r="C90">
-        <v>-0.1803674330844106</v>
+        <v>0.1019723194276919</v>
       </c>
       <c r="D90">
-        <v>0.06247101662235271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03571711536287833</v>
+      </c>
+      <c r="E90">
+        <v>0.03119596136216871</v>
+      </c>
+      <c r="F90">
+        <v>0.00294112787838787</v>
+      </c>
+      <c r="G90">
+        <v>0.03330607826368086</v>
+      </c>
+      <c r="H90">
+        <v>0.02365598752888836</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1158174942483365</v>
+        <v>0.06634236688011222</v>
       </c>
       <c r="C91">
-        <v>0.2085238985553735</v>
+        <v>-0.1913684726866679</v>
       </c>
       <c r="D91">
-        <v>-0.1006599960483376</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0543686372715977</v>
+      </c>
+      <c r="E91">
+        <v>-0.150082073554082</v>
+      </c>
+      <c r="F91">
+        <v>-0.01901598120829861</v>
+      </c>
+      <c r="G91">
+        <v>0.03908029187897544</v>
+      </c>
+      <c r="H91">
+        <v>0.01248233384527217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2870268031968223</v>
+        <v>0.3366205207403422</v>
       </c>
       <c r="C92">
-        <v>-0.2201753126904994</v>
+        <v>0.1519137478491009</v>
       </c>
       <c r="D92">
-        <v>-0.0398533864181634</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.06250620861034174</v>
+      </c>
+      <c r="E92">
+        <v>-0.02794145130076157</v>
+      </c>
+      <c r="F92">
+        <v>-0.09079426228852319</v>
+      </c>
+      <c r="G92">
+        <v>-0.04818310616576343</v>
+      </c>
+      <c r="H92">
+        <v>0.1203765344658756</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3167832639064274</v>
+        <v>0.3278508568278296</v>
       </c>
       <c r="C93">
-        <v>-0.1870190735472936</v>
+        <v>0.1192017744201292</v>
       </c>
       <c r="D93">
-        <v>-0.03282426115452725</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02920276418524569</v>
+      </c>
+      <c r="E93">
+        <v>-0.01565418067310365</v>
+      </c>
+      <c r="F93">
+        <v>0.002301824697244125</v>
+      </c>
+      <c r="G93">
+        <v>-0.03014300267075674</v>
+      </c>
+      <c r="H93">
+        <v>0.03414211715779436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2092724777919997</v>
+        <v>0.1247447116326298</v>
       </c>
       <c r="C94">
-        <v>0.2624844274057097</v>
+        <v>-0.2708388845154817</v>
       </c>
       <c r="D94">
-        <v>-0.09453639009769982</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.1642093307337147</v>
+      </c>
+      <c r="E94">
+        <v>-0.259070612642538</v>
+      </c>
+      <c r="F94">
+        <v>0.1750299634872356</v>
+      </c>
+      <c r="G94">
+        <v>0.1737961653215647</v>
+      </c>
+      <c r="H94">
+        <v>0.1931135254184739</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0008475586818287033</v>
+        <v>0.01451429531785622</v>
       </c>
       <c r="C95">
-        <v>0.06193298441891829</v>
+        <v>-0.09205275097213506</v>
       </c>
       <c r="D95">
-        <v>0.09061878097152447</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1365864527397717</v>
+      </c>
+      <c r="E95">
+        <v>0.02414468599754521</v>
+      </c>
+      <c r="F95">
+        <v>0.04284592251833722</v>
+      </c>
+      <c r="G95">
+        <v>-0.03377486743398779</v>
+      </c>
+      <c r="H95">
+        <v>-0.03345315324869243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002053613355689648</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001245093127184239</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.002556245579100658</v>
+      </c>
+      <c r="E97">
+        <v>0.003920154272430744</v>
+      </c>
+      <c r="F97">
+        <v>0.0005183410711306325</v>
+      </c>
+      <c r="G97">
+        <v>-0.001685578690239331</v>
+      </c>
+      <c r="H97">
+        <v>0.005614414746345338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1321410445636111</v>
+        <v>0.135071026834795</v>
       </c>
       <c r="C98">
-        <v>0.09690236338355271</v>
+        <v>-0.1537672923161313</v>
       </c>
       <c r="D98">
-        <v>0.1336205119514165</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.03720565176630537</v>
+      </c>
+      <c r="E98">
+        <v>0.1775098805759896</v>
+      </c>
+      <c r="F98">
+        <v>0.2563749931584448</v>
+      </c>
+      <c r="G98">
+        <v>-0.2008092084521922</v>
+      </c>
+      <c r="H98">
+        <v>-0.2466885363045859</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001955049741101069</v>
+        <v>0.003074928555456771</v>
       </c>
       <c r="C101">
-        <v>0.02664824344332764</v>
+        <v>-0.04813012493897462</v>
       </c>
       <c r="D101">
-        <v>0.06064414964230932</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01226018296880202</v>
+      </c>
+      <c r="E101">
+        <v>0.1193200266221253</v>
+      </c>
+      <c r="F101">
+        <v>-0.05395223415947813</v>
+      </c>
+      <c r="G101">
+        <v>0.02595126087980273</v>
+      </c>
+      <c r="H101">
+        <v>-0.05424736568862857</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.06524813312894259</v>
+        <v>0.01980793366138951</v>
       </c>
       <c r="C102">
-        <v>0.1503007445231132</v>
+        <v>-0.1131042148535959</v>
       </c>
       <c r="D102">
-        <v>0.01165828016738553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.03079465345350589</v>
+      </c>
+      <c r="E102">
+        <v>-0.08325357650582824</v>
+      </c>
+      <c r="F102">
+        <v>0.06582916081563348</v>
+      </c>
+      <c r="G102">
+        <v>0.06124575155242465</v>
+      </c>
+      <c r="H102">
+        <v>0.0201751716600106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
